--- a/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,52%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 0,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 1,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,56; 34,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,59; 110,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,9; 154,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 245,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,16%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 0,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 1,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 1,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,8; 13,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,16; 136,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,67; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,24%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; -0,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,45; -18,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,6; 117,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; 318,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,64; 64,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,74%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 0,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 2,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 1,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 2,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,85; 21,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,89; 117,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,23; 312,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,56; 235,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,34%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 0,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 0,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,84; 54,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,4; 197,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,81; -5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,8; 47,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,93%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 5,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 1,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 4,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 1,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,96; 324,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,05; 48,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 933,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,51; 23,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 6,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 8,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 6,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 10,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,99; 102,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,06; 61,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 57,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 57,17</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-22,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; -0,01</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 1,79</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,43</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 2,21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-40,95; -0,83</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 53,81</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 67,82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 61,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,35</t>
+          <t>-3,37; 0,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,34</t>
+          <t>-2,47; 1,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,82</t>
+          <t>-2,23; 0,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,87</t>
+          <t>-5,37; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 34,33</t>
+          <t>-79,41; 29,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,59; 110,29</t>
+          <t>-75,48; 113,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-88,9; 154,64</t>
+          <t>-86,87; 130,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 245,16</t>
+          <t>-100,0; 200,15</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,22</t>
+          <t>-3,21; 0,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,4</t>
+          <t>-1,73; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,14</t>
+          <t>-0,2; 2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,12</t>
+          <t>-2,61; 1,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,8; 13,35</t>
+          <t>-76,32; 14,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 136,76</t>
+          <t>-64,75; 105,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,67; —</t>
+          <t>-92,59; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,93</t>
+          <t>-5,23; -1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,8</t>
+          <t>-1,71; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,32</t>
+          <t>-0,95; 1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,45</t>
+          <t>-2,11; 0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,45; -18,51</t>
+          <t>-76,32; -21,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 117,0</t>
+          <t>-53,25; 132,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 318,18</t>
+          <t>-70,36; 295,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 64,8</t>
+          <t>-78,69; 61,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,14</t>
+          <t>-4,24; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,02</t>
+          <t>-1,96; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,44</t>
+          <t>-1,09; 1,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,48</t>
+          <t>-0,86; 2,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 21,11</t>
+          <t>-80,22; 9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 117,54</t>
+          <t>-54,62; 109,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,23; 312,67</t>
+          <t>-76,4; 257,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 235,25</t>
+          <t>-28,27; 285,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,83</t>
+          <t>-4,15; 0,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,66</t>
+          <t>-1,35; 3,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,34</t>
+          <t>-5,08; -0,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,94</t>
+          <t>-2,48; 1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-80,84; 54,27</t>
+          <t>-79,8; 47,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 197,2</t>
+          <t>-33,93; 199,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-88,81; -5,45</t>
+          <t>-87,97; -7,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,8; 47,03</t>
+          <t>-54,68; 51,42</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,72</t>
+          <t>-0,05; 5,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,82</t>
+          <t>-5,38; 2,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,97</t>
+          <t>0,08; 4,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,44</t>
+          <t>-6,29; 1,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 324,59</t>
+          <t>-15,34; 395,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 48,23</t>
+          <t>-62,94; 62,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 933,93</t>
+          <t>-10,42; 756,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 23,85</t>
+          <t>-74,44; 24,47</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 6,35</t>
+          <t>-3,63; 6,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,38</t>
+          <t>-4,78; 8,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 6,37</t>
+          <t>-4,63; 7,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 10,68</t>
+          <t>0,79; 10,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 102,1</t>
+          <t>-33,46; 99,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 61,35</t>
+          <t>-23,31; 58,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 57,52</t>
+          <t>-28,46; 68,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 57,17</t>
+          <t>2,59; 57,05</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; -0,01</t>
+          <t>-1,77; -0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,79</t>
+          <t>-0,29; 1,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,43</t>
+          <t>-0,21; 1,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,21</t>
+          <t>-0,09; 2,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -0,83</t>
+          <t>-39,46; 1,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 53,81</t>
+          <t>-7,31; 53,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 67,82</t>
+          <t>-7,37; 73,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 61,47</t>
+          <t>-1,05; 60,26</t>
         </is>
       </c>
     </row>
